--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2659.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2659.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8919315732641513</v>
+        <v>1.747489333152771</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.89954686164856</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.816475033760071</v>
       </c>
       <c r="D1">
-        <v>1.304211757078509</v>
+        <v>2.172075986862183</v>
       </c>
       <c r="E1">
-        <v>0.8333183481542891</v>
+        <v>3.058873176574707</v>
       </c>
     </row>
   </sheetData>
